--- a/download/xlsx_files_complete/3.012_CS_Receiving_TAT_Report.xlsx
+++ b/download/xlsx_files_complete/3.012_CS_Receiving_TAT_Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23757E-EB18-42DC-BB08-98ABA25C275F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A110E-D5CC-4F30-A24B-4841DE6EBD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10285,8 +10285,8 @@
   </sheetPr>
   <dimension ref="A1:O1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
